--- a/src/main/resources/template/excel/export/CashDailyReport_RQ.xlsx
+++ b/src/main/resources/template/excel/export/CashDailyReport_RQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="R4")</t>
+          <t>jx:area(lastCell="S4")</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="R4")</t>
+jx:each(items="reportList" var="obj" lastCell="S4")</t>
         </r>
       </text>
     </comment>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>收银日报</t>
   </si>
@@ -174,6 +174,14 @@
   </si>
   <si>
     <t>${obj.zzt}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下代金券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.offDjq}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -358,74 +366,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -445,7 +385,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -724,20 +664,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="18" width="12.625" customWidth="1"/>
+    <col min="4" max="19" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -758,8 +698,9 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -793,25 +734,28 @@
         <v>8</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -838,8 +782,9 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -877,32 +822,30 @@
         <v>21</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A1:R1"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -912,8 +855,14 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
